--- a/Data/EC/NIT-9004053220.xlsx
+++ b/Data/EC/NIT-9004053220.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADD29E4-7334-43A3-83ED-A84C07C42D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B448437F-D576-4B29-B077-21F5FEDA3640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45891E0C-7094-4B6C-BA3B-CF9BB8E4681A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74A65EA2-FDF9-452C-B9AA-D418751C4E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,151 +71,151 @@
     <t>EDUARDO LUIS ROJAS FUENTES</t>
   </si>
   <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -314,7 +314,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -327,9 +329,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -529,23 +529,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,10 +573,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,7 +629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6EC7ED-B817-5035-82BF-8CB3061943E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F932AA4-0F96-5DA7-0A23-4D043BA8574E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB7AAC5-8387-4F60-89E7-79F81A1723D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCFAC52-AB1E-4C82-AB6D-975627DA05D3}">
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1158,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29166</v>
+        <v>27556</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1181,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1227,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1250,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1273,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1319,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1342,7 +1342,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1365,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1388,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1411,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1434,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1457,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1480,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1503,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1549,7 +1549,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1572,7 +1572,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1595,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1618,7 +1618,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1641,7 +1641,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1664,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1687,7 +1687,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27556</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1733,7 +1733,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1756,7 +1756,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1779,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1802,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1825,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1848,7 +1848,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1871,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1894,7 +1894,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1917,7 +1917,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1940,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1963,7 +1963,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1986,7 +1986,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2009,7 +2009,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2032,7 +2032,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2055,7 +2055,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2078,7 +2078,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2101,7 +2101,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2124,7 +2124,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2147,7 +2147,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2170,7 +2170,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2193,7 +2193,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2216,7 +2216,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2239,7 +2239,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>27556</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2262,7 +2262,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="24">
-        <v>27556</v>
+        <v>29166</v>
       </c>
       <c r="G64" s="24">
         <v>781242</v>
